--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>837870.1217021313</v>
+        <v>834042.5146550868</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33305450.46443976</v>
+        <v>33305450.46443975</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6063412.656816707</v>
+        <v>6063412.656816709</v>
       </c>
     </row>
     <row r="9">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.48781516894303</v>
+        <v>11.88006760080461</v>
       </c>
       <c r="D5" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="F5" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.676805137461913</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>11.88006760080461</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="G6" t="n">
-        <v>13.48781516894303</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>11.88006760080501</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>13.48781516894303</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11.88006760080461</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.48781516894303</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="S7" t="n">
-        <v>11.88006760080501</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>13.48781516894303</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="C9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>36.39025468426209</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>41.31500304752735</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>289.0012590013202</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>340.2352302787465</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>104.852859635248</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>127.928600974137</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>160.3415073805508</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>71.27923432982972</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.8029445384564</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>256.047110955987</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>302.1082843744914</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>237.4311482774683</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>186.3945973787185</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,16 +2089,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>183.487204544199</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>264.5662858570315</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2256,7 +2256,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>102.4723721420022</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>73.46093032721086</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.728613712284549</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>256.4369212425747</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2383,10 +2383,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>369.8888536056457</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>31.24596842180826</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2797,16 +2797,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>348.6448844335846</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>24.69788772095228</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>295.3947132574463</v>
+        <v>134.4681495872524</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>166.3617200867918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>90.95576941143506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3508,19 +3508,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>359.8768650017195</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>127.3873593352172</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6709649980173</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3720,16 +3720,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>83.42963578489027</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>166.9151815679633</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>139.517923094398</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>55.88313987881816</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>120.7105159640813</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="Y44" t="n">
-        <v>103.7104819003735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4146,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>181.0629145846222</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>6.062264534839903</v>
       </c>
     </row>
   </sheetData>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.95119239213069</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="C5" t="n">
-        <v>28.32713666592561</v>
+        <v>41.95119239212927</v>
       </c>
       <c r="D5" t="n">
-        <v>14.70308093972053</v>
+        <v>28.32713666592465</v>
       </c>
       <c r="E5" t="n">
-        <v>14.70308093972053</v>
+        <v>14.70308093972003</v>
       </c>
       <c r="F5" t="n">
-        <v>1.079025213515442</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="G5" t="n">
-        <v>1.079025213515442</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="H5" t="n">
-        <v>1.079025213515442</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="I5" t="n">
-        <v>2.319676963882345</v>
+        <v>2.319676963882249</v>
       </c>
       <c r="J5" t="n">
-        <v>5.950292136425931</v>
+        <v>5.950292136425713</v>
       </c>
       <c r="K5" t="n">
-        <v>11.39164314017492</v>
+        <v>11.39164314017452</v>
       </c>
       <c r="L5" t="n">
-        <v>18.14212021749473</v>
+        <v>18.1421202174941</v>
       </c>
       <c r="M5" t="n">
-        <v>25.65332664369711</v>
+        <v>25.65332664369623</v>
       </c>
       <c r="N5" t="n">
-        <v>33.28607224259999</v>
+        <v>33.28607224259886</v>
       </c>
       <c r="O5" t="n">
-        <v>40.49345747246085</v>
+        <v>40.49345747245947</v>
       </c>
       <c r="P5" t="n">
-        <v>46.64479401739651</v>
+        <v>46.64479401739492</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.26419158394702</v>
+        <v>51.26419158394528</v>
       </c>
       <c r="R5" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="S5" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="T5" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="U5" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="V5" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="W5" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="X5" t="n">
-        <v>46.19691205207322</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.95119239213069</v>
+        <v>53.95126067577029</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.32713666592561</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="C6" t="n">
-        <v>28.32713666592561</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="D6" t="n">
-        <v>28.32713666592561</v>
+        <v>41.95119239212927</v>
       </c>
       <c r="E6" t="n">
-        <v>28.32713666592561</v>
+        <v>28.32713666592465</v>
       </c>
       <c r="F6" t="n">
-        <v>28.32713666592561</v>
+        <v>14.70308093972003</v>
       </c>
       <c r="G6" t="n">
-        <v>14.70308093972053</v>
+        <v>14.70308093972003</v>
       </c>
       <c r="H6" t="n">
-        <v>1.079025213515442</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="I6" t="n">
-        <v>1.867038804705265</v>
+        <v>1.867038804705202</v>
       </c>
       <c r="J6" t="n">
-        <v>4.029408329268318</v>
+        <v>4.029408329268183</v>
       </c>
       <c r="K6" t="n">
-        <v>7.725242263897069</v>
+        <v>7.725242263896809</v>
       </c>
       <c r="L6" t="n">
-        <v>12.69474708324129</v>
+        <v>12.69474708324087</v>
       </c>
       <c r="M6" t="n">
-        <v>18.49392481101659</v>
+        <v>18.49392481101596</v>
       </c>
       <c r="N6" t="n">
-        <v>24.4465895172542</v>
+        <v>24.44658951725338</v>
       </c>
       <c r="O6" t="n">
-        <v>29.89211477601526</v>
+        <v>29.89211477601425</v>
       </c>
       <c r="P6" t="n">
-        <v>39.17728921305571</v>
+        <v>34.2626288821571</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.5302262303093</v>
+        <v>40.59832365851715</v>
       </c>
       <c r="R6" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="S6" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="T6" t="n">
-        <v>41.95119239213069</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="U6" t="n">
-        <v>28.32713666592561</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="V6" t="n">
-        <v>28.32713666592561</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="W6" t="n">
-        <v>28.32713666592561</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="X6" t="n">
-        <v>28.32713666592561</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.32713666592561</v>
+        <v>53.95126067577029</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.70308093972053</v>
+        <v>26.70314922336105</v>
       </c>
       <c r="C7" t="n">
-        <v>14.70308093972053</v>
+        <v>26.70314922336105</v>
       </c>
       <c r="D7" t="n">
-        <v>14.70308093972053</v>
+        <v>13.07909349715643</v>
       </c>
       <c r="E7" t="n">
-        <v>14.70308093972053</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="F7" t="n">
-        <v>14.70308093972053</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="G7" t="n">
-        <v>14.70308093972053</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="H7" t="n">
-        <v>14.70308093972053</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="I7" t="n">
-        <v>1.079025213515442</v>
+        <v>1.079025213515406</v>
       </c>
       <c r="J7" t="n">
-        <v>4.316523603739032</v>
+        <v>2.435626362226698</v>
       </c>
       <c r="K7" t="n">
-        <v>17.66946062099263</v>
+        <v>15.78856337947984</v>
       </c>
       <c r="L7" t="n">
-        <v>31.02239763824623</v>
+        <v>29.14150039673299</v>
       </c>
       <c r="M7" t="n">
-        <v>44.37533465549983</v>
+        <v>32.62914229309662</v>
       </c>
       <c r="N7" t="n">
-        <v>47.31164263238782</v>
+        <v>35.56545026998452</v>
       </c>
       <c r="O7" t="n">
-        <v>50.0237983042618</v>
+        <v>38.2776059418584</v>
       </c>
       <c r="P7" t="n">
-        <v>52.34451602092062</v>
+        <v>40.59832365851715</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.95126067577212</v>
+        <v>53.95126067577029</v>
       </c>
       <c r="R7" t="n">
-        <v>53.95126067577212</v>
+        <v>40.32720494956567</v>
       </c>
       <c r="S7" t="n">
-        <v>41.95119239213069</v>
+        <v>40.32720494956567</v>
       </c>
       <c r="T7" t="n">
-        <v>28.32713666592561</v>
+        <v>26.70314922336105</v>
       </c>
       <c r="U7" t="n">
-        <v>28.32713666592561</v>
+        <v>26.70314922336105</v>
       </c>
       <c r="V7" t="n">
-        <v>28.32713666592561</v>
+        <v>26.70314922336105</v>
       </c>
       <c r="W7" t="n">
-        <v>14.70308093972053</v>
+        <v>26.70314922336105</v>
       </c>
       <c r="X7" t="n">
-        <v>14.70308093972053</v>
+        <v>26.70314922336105</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.70308093972053</v>
+        <v>26.70314922336105</v>
       </c>
     </row>
     <row r="8">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.06303325820834</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C9" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E9" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
         <v>3.305200243802188</v>
@@ -4880,28 +4880,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>23.55833427601031</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>38.70199365651513</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M9" t="n">
-        <v>56.37392987329654</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N9" t="n">
-        <v>74.51358965724877</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O9" t="n">
-        <v>115.4154426743008</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P9" t="n">
-        <v>128.7337871265465</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q9" t="n">
         <v>160.929668948206</v>
@@ -4925,10 +4925,10 @@
         <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146.5247019534642</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="C10" t="n">
-        <v>146.5247019534642</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="D10" t="n">
-        <v>146.5247019534642</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="E10" t="n">
-        <v>104.7923756428305</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>63.06004933219679</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>63.06004933219679</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028656</v>
+        <v>41.59117297624078</v>
       </c>
       <c r="K10" t="n">
-        <v>48.34104778508073</v>
+        <v>48.38459589248281</v>
       </c>
       <c r="L10" t="n">
         <v>57.07783833162382</v>
@@ -4989,25 +4989,25 @@
         <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>146.5247019534642</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="T10" t="n">
-        <v>146.5247019534642</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="U10" t="n">
-        <v>146.5247019534642</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="V10" t="n">
-        <v>146.5247019534642</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="W10" t="n">
-        <v>146.5247019534642</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="X10" t="n">
-        <v>146.5247019534642</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.5247019534642</v>
+        <v>63.06004933219679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.127015186652</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="C11" t="n">
-        <v>47.20655154895472</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895472</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895472</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435805</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371906</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715598</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,58 +5175,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0817647851411</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C13" t="n">
-        <v>510.1697853555977</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D13" t="n">
-        <v>344.2917925571204</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E13" t="n">
-        <v>344.2917925571204</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>393.4422361027639</v>
       </c>
       <c r="L13" t="n">
-        <v>744.9929992049549</v>
+        <v>935.5229194890228</v>
       </c>
       <c r="M13" t="n">
-        <v>875.5973915434845</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954412</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
         <v>2118.080353351143</v>
@@ -5241,10 +5241,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041283</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1743.700871327882</v>
+        <v>1506.71962937322</v>
       </c>
       <c r="C14" t="n">
-        <v>1614.480062263097</v>
+        <v>1506.71962937322</v>
       </c>
       <c r="D14" t="n">
-        <v>1178.570277437541</v>
+        <v>1070.809844547665</v>
       </c>
       <c r="E14" t="n">
-        <v>744.7955325958366</v>
+        <v>637.03509970596</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>209.1676701151677</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
         <v>805.440802286702</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W14" t="n">
-        <v>1743.700871327882</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X14" t="n">
-        <v>1743.700871327882</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y14" t="n">
-        <v>1743.700871327882</v>
+        <v>1506.71962937322</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043084</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.8524940391951</v>
+        <v>686.6115078231581</v>
       </c>
       <c r="C16" t="n">
-        <v>724.29078252242</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="D16" t="n">
-        <v>558.4127897239428</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E16" t="n">
-        <v>388.6547859746801</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F16" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N16" t="n">
-        <v>1842.060047552668</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.320157362629</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P16" t="n">
         <v>2274.089213540313</v>
@@ -5460,7 +5460,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
@@ -5469,19 +5469,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725808</v>
+        <v>1623.267956308333</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1351.241551894625</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645512</v>
+        <v>1105.849797228037</v>
       </c>
       <c r="Y16" t="n">
-        <v>1088.671112758182</v>
+        <v>878.4301265421452</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>743.9824697756193</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C17" t="n">
-        <v>305.8399969590426</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>305.8399969590426</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>305.8399969590426</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>305.8399969590426</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1543.859381446603</v>
       </c>
       <c r="W17" t="n">
-        <v>1997.710627381563</v>
+        <v>1543.859381446603</v>
       </c>
       <c r="X17" t="n">
-        <v>1578.568163960874</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y17" t="n">
-        <v>1170.282040260527</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="18">
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>555.4042596134699</v>
+        <v>618.4995461772218</v>
       </c>
       <c r="C19" t="n">
-        <v>382.8425480966948</v>
+        <v>445.9378346604467</v>
       </c>
       <c r="D19" t="n">
-        <v>216.9645552982175</v>
+        <v>280.0598418619694</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>477.6707703898316</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>1019.75145377609</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M19" t="n">
-        <v>1150.35584611462</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.854757918509</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1815.289888492053</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2263.565838640078</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2120.498134743223</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1842.111502791966</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1555.155994662397</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.034303684936</v>
+        <v>1283.129590248688</v>
       </c>
       <c r="X19" t="n">
-        <v>974.6425490183487</v>
+        <v>1037.737835582101</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.222878332457</v>
+        <v>810.3181648962088</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1106.599419841793</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C20" t="n">
-        <v>668.4569470252163</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D20" t="n">
-        <v>232.5471621996608</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E20" t="n">
-        <v>232.5471621996608</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.185114027047</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y20" t="n">
-        <v>1532.898990326701</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="21">
@@ -5837,7 +5837,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>890.893515694255</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>725.0155228957777</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>555.2575191465151</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>378.5504651082713</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>213.8092847207897</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
@@ -5913,22 +5913,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>601.5415720081295</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M22" t="n">
-        <v>732.1459643466588</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N22" t="n">
-        <v>1301.903679308193</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O22" t="n">
-        <v>1839.338809881736</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2286.124617521261</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.877393424667</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>2043.877393424667</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.110459942618</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1588.087019077061</v>
+        <v>461.1213706923359</v>
       </c>
       <c r="C23" t="n">
-        <v>1588.087019077061</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="D23" t="n">
-        <v>1152.177234251506</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="E23" t="n">
-        <v>718.4024894098006</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="F23" t="n">
-        <v>718.4024894098006</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G23" t="n">
-        <v>318.8997980892778</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H23" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I23" t="n">
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L23" t="n">
-        <v>818.1068556527073</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.254743821494</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N23" t="n">
-        <v>1885.178229644124</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O23" t="n">
-        <v>2198.133744185416</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P23" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q23" t="n">
-        <v>2707.7995967108</v>
+        <v>2707.799596710799</v>
       </c>
       <c r="R23" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S23" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T23" t="n">
-        <v>2781.858994217109</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U23" t="n">
-        <v>2781.858994217109</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V23" t="n">
-        <v>2419.242044150936</v>
+        <v>2119.704982887246</v>
       </c>
       <c r="W23" t="n">
-        <v>2014.386589561969</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.386589561969</v>
+        <v>1295.70706487759</v>
       </c>
       <c r="Y23" t="n">
-        <v>2014.386589561969</v>
+        <v>887.4209411772437</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>176.1863553587068</v>
       </c>
       <c r="G24" t="n">
-        <v>91.81525494836369</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H24" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I24" t="n">
         <v>94.08934108643605</v>
@@ -6144,7 +6144,7 @@
         <v>122.9678914787119</v>
       </c>
       <c r="I25" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J25" t="n">
         <v>205.3579537818329</v>
@@ -6153,25 +6153,25 @@
         <v>576.9165089205267</v>
       </c>
       <c r="L25" t="n">
-        <v>1109.34172060837</v>
+        <v>941.1489457440376</v>
       </c>
       <c r="M25" t="n">
-        <v>1699.429980127812</v>
+        <v>1531.23720526348</v>
       </c>
       <c r="N25" t="n">
-        <v>2269.187695089347</v>
+        <v>2100.994920225015</v>
       </c>
       <c r="O25" t="n">
-        <v>2806.62282566289</v>
+        <v>2638.430050798558</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
       </c>
       <c r="R25" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S25" t="n">
         <v>2849.203707252231</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>869.4074943926829</v>
+        <v>760.6584319560251</v>
       </c>
       <c r="C26" t="n">
-        <v>869.4074943926829</v>
+        <v>760.6584319560251</v>
       </c>
       <c r="D26" t="n">
-        <v>433.4977095671274</v>
+        <v>760.6584319560251</v>
       </c>
       <c r="E26" t="n">
-        <v>59.87260491495994</v>
+        <v>760.6584319560251</v>
       </c>
       <c r="F26" t="n">
-        <v>59.87260491495994</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G26" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6226,25 +6226,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>976.4735309700052</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>1269.589405833906</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1595.737294002693</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1927.16259597917</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>2240.118110520463</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.7995967108</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2741.392624431906</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2482.32193295342</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="V26" t="n">
-        <v>2119.704982887247</v>
+        <v>2419.242044150936</v>
       </c>
       <c r="W26" t="n">
-        <v>1714.84952829828</v>
+        <v>2014.386589561969</v>
       </c>
       <c r="X26" t="n">
-        <v>1295.707064877591</v>
+        <v>1595.24412614128</v>
       </c>
       <c r="Y26" t="n">
-        <v>1295.707064877591</v>
+        <v>1186.958002440933</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643598</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
         <v>187.9826804329031</v>
@@ -6372,10 +6372,10 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868774</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>302.1580543493911</v>
+        <v>490.3368237558368</v>
       </c>
       <c r="L28" t="n">
-        <v>844.2387377356501</v>
+        <v>1032.417507142096</v>
       </c>
       <c r="M28" t="n">
-        <v>1434.326997255093</v>
+        <v>1622.505766661538</v>
       </c>
       <c r="N28" t="n">
-        <v>2004.084712216627</v>
+        <v>2192.263481623072</v>
       </c>
       <c r="O28" t="n">
-        <v>2541.51984279017</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1947.273300031855</v>
+        <v>1203.646414013182</v>
       </c>
       <c r="C29" t="n">
-        <v>1509.130827215278</v>
+        <v>765.503941196605</v>
       </c>
       <c r="D29" t="n">
-        <v>1509.130827215278</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="E29" t="n">
-        <v>1156.964277282364</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G29" t="n">
         <v>329.5941563710495</v>
@@ -6463,25 +6463,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527073</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1144.254743821494</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N29" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O29" t="n">
-        <v>1788.635560339264</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P29" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q29" t="n">
         <v>2707.7995967108</v>
@@ -6490,25 +6490,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2781.858994217109</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2781.858994217109</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V29" t="n">
-        <v>2781.858994217109</v>
+        <v>2457.374571619125</v>
       </c>
       <c r="W29" t="n">
-        <v>2781.858994217109</v>
+        <v>2457.374571619125</v>
       </c>
       <c r="X29" t="n">
-        <v>2781.858994217109</v>
+        <v>2038.232108198436</v>
       </c>
       <c r="Y29" t="n">
-        <v>2373.572870516763</v>
+        <v>1629.945984498089</v>
       </c>
     </row>
     <row r="30">
@@ -6542,10 +6542,10 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
         <v>564.2447313620956</v>
@@ -6627,10 +6627,10 @@
         <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>1053.125918954609</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1183.730311293139</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
         <v>1753.488026254673</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.739022124069</v>
+        <v>2026.648806949625</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.739022124069</v>
+        <v>2026.648806949625</v>
       </c>
       <c r="D32" t="n">
         <v>1590.739022124069</v>
@@ -6694,7 +6694,7 @@
         <v>329.5941563710495</v>
       </c>
       <c r="H32" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I32" t="n">
         <v>131.0725551661405</v>
@@ -6721,31 +6721,31 @@
         <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
-        <v>2707.7995967108</v>
+        <v>2707.799596710799</v>
       </c>
       <c r="R32" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="U32" t="n">
-        <v>2734.559554269511</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="V32" t="n">
-        <v>2436.181056029666</v>
+        <v>2857.803832023499</v>
       </c>
       <c r="W32" t="n">
-        <v>2436.181056029666</v>
+        <v>2452.948377434533</v>
       </c>
       <c r="X32" t="n">
-        <v>2017.038592608977</v>
+        <v>2452.948377434533</v>
       </c>
       <c r="Y32" t="n">
-        <v>2017.038592608977</v>
+        <v>2452.948377434533</v>
       </c>
     </row>
     <row r="33">
@@ -6770,13 +6770,13 @@
         <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>91.81525494836369</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H33" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643598</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
         <v>187.9826804329031</v>
@@ -6855,34 +6855,34 @@
         <v>122.9678914787119</v>
       </c>
       <c r="I34" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>490.3368237558368</v>
+        <v>302.1580543493911</v>
       </c>
       <c r="L34" t="n">
-        <v>1032.417507142096</v>
+        <v>844.2387377356501</v>
       </c>
       <c r="M34" t="n">
-        <v>1603.39956051892</v>
+        <v>1434.326997255093</v>
       </c>
       <c r="N34" t="n">
-        <v>2173.157275480454</v>
+        <v>2004.084712216627</v>
       </c>
       <c r="O34" t="n">
-        <v>2290.923156828216</v>
+        <v>2541.51984279017</v>
       </c>
       <c r="P34" t="n">
-        <v>2739.199106976242</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
       </c>
       <c r="R34" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S34" t="n">
         <v>2849.203707252231</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2016.215441574641</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C35" t="n">
-        <v>1578.072968758064</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D35" t="n">
-        <v>1578.072968758064</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E35" t="n">
         <v>1144.298223916359</v>
@@ -6937,7 +6937,7 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228015</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2192.285435945927</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>1933.214744467441</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>1570.597794401267</v>
       </c>
       <c r="W35" t="n">
-        <v>2108.089956131646</v>
+        <v>1570.597794401267</v>
       </c>
       <c r="X35" t="n">
-        <v>2108.089956131646</v>
+        <v>1570.597794401267</v>
       </c>
       <c r="Y35" t="n">
-        <v>2016.215441574641</v>
+        <v>1570.597794401267</v>
       </c>
     </row>
     <row r="36">
@@ -7095,25 +7095,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>413.3628026016838</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>992.6864461505235</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954413</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1118.582560671843</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>680.440087855266</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895473</v>
@@ -7174,7 +7174,7 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228015</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W38" t="n">
-        <v>2191.18710732393</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X38" t="n">
-        <v>2191.18710732393</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.900983623584</v>
+        <v>1118.582560671843</v>
       </c>
     </row>
     <row r="39">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>890.893515694255</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C40" t="n">
-        <v>753.852136908379</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
         <v>753.852136908379</v>
@@ -7335,22 +7335,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L40" t="n">
-        <v>326.783117436994</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M40" t="n">
-        <v>550.4276429928788</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7368,16 +7368,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1610.994823525444</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="Y40" t="n">
-        <v>890.893515694255</v>
+        <v>1111.548748425843</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1178.570277437541</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>1178.570277437541</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>1178.570277437541</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
         <v>316.9281030050443</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2151.26001415954</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>1892.189322681054</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.639935903077</v>
+        <v>1529.572372614881</v>
       </c>
       <c r="W41" t="n">
-        <v>1738.639935903077</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="X41" t="n">
-        <v>1319.497472482388</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y41" t="n">
-        <v>1178.570277437541</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="42">
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="C43" t="n">
-        <v>299.0935147726011</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="D43" t="n">
-        <v>299.0935147726011</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E43" t="n">
-        <v>299.0935147726011</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F43" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
         <v>242.6458987333908</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>862.082053811994</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M43" t="n">
-        <v>992.6864461505235</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7614,7 +7614,7 @@
         <v>890.893515694255</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>768.9637015891224</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1744.26120212753</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895473</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y44" t="n">
-        <v>1744.26120212753</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7733,7 +7733,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M45" t="n">
         <v>803.387703298788</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>720.1454400009515</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C46" t="n">
-        <v>547.5837284841764</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D46" t="n">
-        <v>381.7057356856991</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>211.9477319364363</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895473</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728194</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7842,16 +7842,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1656.801888486126</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1384.775484072418</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1139.38372940583</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>911.9640587199385</v>
+        <v>1029.196554659879</v>
       </c>
     </row>
   </sheetData>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4.964303364542879</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.5367313938689</v>
+        <v>3.448607918218947</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>12.0524268401923</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.899896203547729</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11.23598444294434</v>
+        <v>11.23598444294396</v>
       </c>
       <c r="L7" t="n">
-        <v>10.60624711784893</v>
+        <v>10.60624711784857</v>
       </c>
       <c r="M7" t="n">
-        <v>10.44960568471804</v>
+        <v>0.484661118162613</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>11.86484077010273</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>24.55313958073653</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>23.52820329282204</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>34.49694768506275</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778792</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.043987987274825</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>192.4544649334019</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>118.2717723303419</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>10.62967161639949</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>215.6507358204033</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>105.0002374943213</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.62967161639926</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>167.4632046631937</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>413.6345291375271</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.40845084348166</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9801,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>412.68122229247</v>
+        <v>242.7895305103162</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>456.0429799810086</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10047,13 +10047,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>150.5924936582965</v>
       </c>
       <c r="P28" t="n">
-        <v>97.88909899837154</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>456.0429799810086</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10275,13 +10275,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>355.8975842583684</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>16.39178053361684</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>444.8259202407019</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>97.88909899837108</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>453.2517688993032</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>93.97993254278316</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>175.7179764032068</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>141.4680432173443</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22786,16 +22786,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>20.27323291946789</v>
+        <v>21.88098048760631</v>
       </c>
       <c r="D5" t="n">
-        <v>18.06287180835687</v>
+        <v>18.06287180835733</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>15.94918222434518</v>
       </c>
       <c r="F5" t="n">
-        <v>10.10094012594129</v>
+        <v>10.10094012594175</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>7.274233649020487</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>144.7597890870907</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,13 +23269,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>83.35352501613784</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>65.98323476635935</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>305.832447114274</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>235.1661570267667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>212.8067187184441</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.3425294405764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>139.4605534513306</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>56.88249619102032</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23910,7 +23910,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.393603578159144</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.91154299085284</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>240.1015507506853</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>139.6369766063116</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>28.5482478724751</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>69.52134278359696</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>432.0324343761264</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>10.58741469895398</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24448,19 +24448,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>59.548143787642</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>392.3427868730761</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>80.79211295970316</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>334.2928928445594</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>63.59606730806547</v>
+        <v>224.5226309782594</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>43.29181892878705</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.247493051908</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>71.67382197558044</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>273.4195407078598</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>35.16512940359002</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>200.6563172633836</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,13 +25636,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>42.73835744761556</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>264.6853393689451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>119.0568436190432</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>104.4349580149515</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>305.396991767981</v>
       </c>
       <c r="Y44" t="n">
-        <v>300.4927805629695</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0230384636517</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.0832094441929</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514953.5353104441</v>
+        <v>514953.535310444</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>320991.2856553617</v>
+        <v>320991.2856553618</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>320991.2856553617</v>
+        <v>320991.2856553618</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>320991.2856553618</v>
+        <v>320991.2856553617</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>405623.0904895885</v>
+        <v>405623.0904895886</v>
       </c>
       <c r="C2" t="n">
-        <v>408852.1618131986</v>
+        <v>408852.1618131984</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="F2" t="n">
         <v>243811.2355162668</v>
       </c>
       <c r="G2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="H2" t="n">
         <v>243811.2355162669</v>
       </c>
       <c r="I2" t="n">
-        <v>293143.8401912075</v>
+        <v>293143.8401912074</v>
       </c>
       <c r="J2" t="n">
         <v>293143.8401912075</v>
@@ -26343,7 +26343,7 @@
         <v>293143.8401912075</v>
       </c>
       <c r="L2" t="n">
-        <v>293143.8401912076</v>
+        <v>293143.8401912075</v>
       </c>
       <c r="M2" t="n">
         <v>243811.2355162669</v>
@@ -26352,10 +26352,10 @@
         <v>243811.2355162669</v>
       </c>
       <c r="O2" t="n">
-        <v>243811.2355162669</v>
+        <v>243811.2355162668</v>
       </c>
       <c r="P2" t="n">
-        <v>243811.2355162669</v>
+        <v>243811.2355162668</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14144.82719286377</v>
+        <v>14144.82719286329</v>
       </c>
       <c r="D3" t="n">
-        <v>27489.28712274704</v>
+        <v>27489.28712274749</v>
       </c>
       <c r="E3" t="n">
         <v>512485.5095559817</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426838</v>
+        <v>42102.11971426835</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3471.33201440053</v>
+        <v>3471.332014400412</v>
       </c>
       <c r="L3" t="n">
-        <v>7042.810807378784</v>
+        <v>7042.81080737887</v>
       </c>
       <c r="M3" t="n">
-        <v>97299.51484534089</v>
+        <v>97299.51484534092</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
         <v>297208.5166434599</v>
@@ -26429,7 +26429,7 @@
         <v>14728.7909942616</v>
       </c>
       <c r="F4" t="n">
-        <v>14728.79099426159</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="G4" t="n">
         <v>14728.7909942616</v>
@@ -26438,16 +26438,16 @@
         <v>14728.7909942616</v>
       </c>
       <c r="I4" t="n">
-        <v>40805.18316884374</v>
+        <v>40805.18316884373</v>
       </c>
       <c r="J4" t="n">
         <v>40805.18316884374</v>
       </c>
       <c r="K4" t="n">
-        <v>40805.18316884374</v>
+        <v>40805.18316884375</v>
       </c>
       <c r="L4" t="n">
-        <v>40805.18316884375</v>
+        <v>40805.18316884372</v>
       </c>
       <c r="M4" t="n">
         <v>14728.7909942616</v>
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34681.96937349498</v>
+        <v>34681.96937349495</v>
       </c>
       <c r="D5" t="n">
         <v>36853.56981021012</v>
@@ -26490,7 +26490,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>55677.28176780177</v>
+        <v>55677.28176780176</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26499,7 +26499,7 @@
         <v>55677.28176780177</v>
       </c>
       <c r="L5" t="n">
-        <v>55677.28176780177</v>
+        <v>55677.28176780176</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73264.77417775569</v>
+        <v>73232.86746025413</v>
       </c>
       <c r="C6" t="n">
-        <v>62816.84860338003</v>
+        <v>62795.35824498716</v>
       </c>
       <c r="D6" t="n">
-        <v>57049.60175700465</v>
+        <v>57049.60175700406</v>
       </c>
       <c r="E6" t="n">
-        <v>-329454.1462436143</v>
+        <v>-330008.0266868362</v>
       </c>
       <c r="F6" t="n">
-        <v>183031.3633123674</v>
+        <v>182477.4828691455</v>
       </c>
       <c r="G6" t="n">
-        <v>183031.3633123674</v>
+        <v>182477.4828691455</v>
       </c>
       <c r="H6" t="n">
-        <v>183031.3633123675</v>
+        <v>182477.4828691455</v>
       </c>
       <c r="I6" t="n">
-        <v>154559.2555402936</v>
+        <v>154164.5125315069</v>
       </c>
       <c r="J6" t="n">
-        <v>196661.375254562</v>
+        <v>196266.6322457753</v>
       </c>
       <c r="K6" t="n">
-        <v>193190.0432401615</v>
+        <v>192795.3002313749</v>
       </c>
       <c r="L6" t="n">
-        <v>189618.5644471833</v>
+        <v>189223.8214383965</v>
       </c>
       <c r="M6" t="n">
-        <v>85731.84846702658</v>
+        <v>85177.96802380461</v>
       </c>
       <c r="N6" t="n">
-        <v>183031.3633123675</v>
+        <v>182477.4828691455</v>
       </c>
       <c r="O6" t="n">
-        <v>183031.3633123675</v>
+        <v>182477.4828691455</v>
       </c>
       <c r="P6" t="n">
-        <v>183031.3633123675</v>
+        <v>182477.4828691455</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.74817482675432</v>
+        <v>10.74817482675396</v>
       </c>
       <c r="D3" t="n">
         <v>32.7531020605716</v>
@@ -26792,16 +26792,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
@@ -26810,7 +26810,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
@@ -26819,7 +26819,7 @@
         <v>748.4075614369992</v>
       </c>
       <c r="L4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.74817482675432</v>
+        <v>10.74817482675396</v>
       </c>
       <c r="D3" t="n">
-        <v>22.00492723381728</v>
+        <v>22.00492723381764</v>
       </c>
       <c r="E3" t="n">
         <v>433.9488260326495</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="D4" t="n">
-        <v>27.82718787858432</v>
+        <v>27.82718787858477</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.3256670750651</v>
+        <v>158.325667075065</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="L4" t="n">
-        <v>27.82718787858432</v>
+        <v>27.82718787858466</v>
       </c>
       <c r="M4" t="n">
-        <v>390.4412242393416</v>
+        <v>390.4412242393418</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="L4" t="n">
-        <v>27.82718787858432</v>
+        <v>27.82718787858477</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>397.3406443199466</v>
       </c>
       <c r="H5" t="n">
-        <v>285.7963414717405</v>
+        <v>285.7963414717406</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>81.83073584638463</v>
+        <v>81.83073584638466</v>
       </c>
       <c r="T5" t="n">
         <v>217.6774085831124</v>
@@ -27700,19 +27700,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>82.25931836410767</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>79.69139535737324</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>69.06218483105742</v>
       </c>
       <c r="G6" t="n">
-        <v>71.02030495186983</v>
+        <v>84.50812012081286</v>
       </c>
       <c r="H6" t="n">
-        <v>27.60720237066216</v>
+        <v>27.60720237066262</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.3914631724092</v>
+        <v>62.39146317240921</v>
       </c>
       <c r="T6" t="n">
-        <v>116.9036049841089</v>
+        <v>128.7836725849139</v>
       </c>
       <c r="U6" t="n">
-        <v>161.0838453929525</v>
+        <v>174.5716605618955</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27779,10 +27779,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>150.73139770155</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>156.1803561109655</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27794,7 +27794,7 @@
         <v>138.3308293701265</v>
       </c>
       <c r="I7" t="n">
-        <v>73.70266632926112</v>
+        <v>87.19048149820416</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.33215992277812</v>
+        <v>6.844344753835573</v>
       </c>
       <c r="S7" t="n">
-        <v>145.4311128052785</v>
+        <v>157.3111804060835</v>
       </c>
       <c r="T7" t="n">
-        <v>229.8500229823441</v>
+        <v>229.8500229823445</v>
       </c>
       <c r="U7" t="n">
         <v>275.6476135419018</v>
@@ -27836,7 +27836,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>255.8183252006284</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.77585902143818</v>
+        <v>83.70060738470343</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>46.15974531573791</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
         <v>84.46078876789484</v>
@@ -27997,10 +27997,10 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28016,22 +28016,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>150.2181261617868</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>120.1357315113781</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888225</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.6196485125224</v>
+        <v>115.304645464995</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6454491228296</v>
+        <v>234.3304460753022</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04320874302212788</v>
+        <v>0.04320874302212643</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4425115394753673</v>
+        <v>0.4425115394753524</v>
       </c>
       <c r="I5" t="n">
-        <v>1.665805065360587</v>
+        <v>1.665805065360531</v>
       </c>
       <c r="J5" t="n">
-        <v>3.66728805307433</v>
+        <v>3.667288053074206</v>
       </c>
       <c r="K5" t="n">
-        <v>5.496314145201004</v>
+        <v>5.496314145200818</v>
       </c>
       <c r="L5" t="n">
-        <v>6.818663714464452</v>
+        <v>6.818663714464222</v>
       </c>
       <c r="M5" t="n">
-        <v>7.587077198184218</v>
+        <v>7.587077198183962</v>
       </c>
       <c r="N5" t="n">
-        <v>7.70984403929584</v>
+        <v>7.70984403929558</v>
       </c>
       <c r="O5" t="n">
-        <v>7.280187100869555</v>
+        <v>7.280187100869309</v>
       </c>
       <c r="P5" t="n">
-        <v>6.213471257510772</v>
+        <v>6.213471257510562</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.666058148030816</v>
+        <v>4.666058148030658</v>
       </c>
       <c r="R5" t="n">
-        <v>2.714211203863743</v>
+        <v>2.714211203863651</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9846192316167401</v>
+        <v>0.9846192316167069</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1891462725793649</v>
+        <v>0.1891462725793585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00345669944177023</v>
+        <v>0.003456699441770113</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0231187156650942</v>
+        <v>0.02311871566509342</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2232781223444624</v>
+        <v>0.2232781223444549</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7959733244341644</v>
+        <v>0.7959733244341375</v>
       </c>
       <c r="J6" t="n">
-        <v>2.184211640972781</v>
+        <v>2.184211640972708</v>
       </c>
       <c r="K6" t="n">
-        <v>3.733165590534092</v>
+        <v>3.733165590533967</v>
       </c>
       <c r="L6" t="n">
-        <v>5.01970183772144</v>
+        <v>5.019701837721271</v>
       </c>
       <c r="M6" t="n">
-        <v>5.857755280581103</v>
+        <v>5.857755280580905</v>
       </c>
       <c r="N6" t="n">
-        <v>6.012792632563249</v>
+        <v>6.012792632563047</v>
       </c>
       <c r="O6" t="n">
-        <v>5.500530564405109</v>
+        <v>5.500530564404923</v>
       </c>
       <c r="P6" t="n">
-        <v>4.414660713275751</v>
+        <v>4.414660713275602</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.951083775074129</v>
+        <v>2.95108377507403</v>
       </c>
       <c r="R6" t="n">
-        <v>1.435388328750323</v>
+        <v>1.435388328750274</v>
       </c>
       <c r="S6" t="n">
-        <v>0.429420003691552</v>
+        <v>0.4294200036915375</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09318464779044543</v>
+        <v>0.09318464779044229</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001520968135861461</v>
+        <v>0.00152096813586141</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01938195460562254</v>
+        <v>0.01938195460562189</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1723231964027169</v>
+        <v>0.1723231964027111</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5828682348672671</v>
+        <v>0.5828682348672475</v>
       </c>
       <c r="J7" t="n">
-        <v>1.370304190617514</v>
+        <v>1.370304190617467</v>
       </c>
       <c r="K7" t="n">
-        <v>2.251830725998691</v>
+        <v>2.251830725998615</v>
       </c>
       <c r="L7" t="n">
-        <v>2.881568051094101</v>
+        <v>2.881568051094003</v>
       </c>
       <c r="M7" t="n">
-        <v>3.038209484224995</v>
+        <v>3.038209484224892</v>
       </c>
       <c r="N7" t="n">
-        <v>2.965967653422222</v>
+        <v>2.965967653422122</v>
       </c>
       <c r="O7" t="n">
-        <v>2.739551183711085</v>
+        <v>2.739551183710993</v>
       </c>
       <c r="P7" t="n">
-        <v>2.344159309756384</v>
+        <v>2.344159309756304</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.622974398839902</v>
+        <v>1.622974398839847</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8714831589037187</v>
+        <v>0.8714831589036893</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3377746088998036</v>
+        <v>0.3377746088997922</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08281380604220538</v>
+        <v>0.08281380604220259</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001057197523943049</v>
+        <v>0.001057197523943013</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,7 +32089,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
@@ -32320,7 +32320,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32557,10 +32557,10 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -33022,10 +33022,10 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916772</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33262,7 +33262,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33496,10 +33496,10 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916772</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -34222,7 +34222,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
@@ -34444,7 +34444,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562338</v>
@@ -34456,7 +34456,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
@@ -34932,34 +34932,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.253183586229189</v>
+        <v>1.253183586229133</v>
       </c>
       <c r="J5" t="n">
-        <v>3.66728805307433</v>
+        <v>3.667288053074206</v>
       </c>
       <c r="K5" t="n">
-        <v>5.496314145201004</v>
+        <v>5.496314145200818</v>
       </c>
       <c r="L5" t="n">
-        <v>6.818663714464453</v>
+        <v>6.818663714464224</v>
       </c>
       <c r="M5" t="n">
-        <v>7.587077198184218</v>
+        <v>7.587077198183966</v>
       </c>
       <c r="N5" t="n">
-        <v>7.709844039295838</v>
+        <v>7.709844039295582</v>
       </c>
       <c r="O5" t="n">
-        <v>7.280187100869554</v>
+        <v>7.280187100869306</v>
       </c>
       <c r="P5" t="n">
-        <v>6.213471257510776</v>
+        <v>6.213471257510562</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.666058148030814</v>
+        <v>4.666058148030658</v>
       </c>
       <c r="R5" t="n">
-        <v>2.714211203863741</v>
+        <v>2.714211203863655</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7959733244341645</v>
+        <v>0.7959733244341374</v>
       </c>
       <c r="J6" t="n">
-        <v>2.184211640972781</v>
+        <v>2.184211640972708</v>
       </c>
       <c r="K6" t="n">
-        <v>3.733165590534092</v>
+        <v>3.733165590533966</v>
       </c>
       <c r="L6" t="n">
-        <v>5.01970183772144</v>
+        <v>5.01970183772127</v>
       </c>
       <c r="M6" t="n">
-        <v>5.857755280581102</v>
+        <v>5.857755280580907</v>
       </c>
       <c r="N6" t="n">
-        <v>6.012792632563251</v>
+        <v>6.012792632563048</v>
       </c>
       <c r="O6" t="n">
-        <v>5.500530564405111</v>
+        <v>5.500530564404922</v>
       </c>
       <c r="P6" t="n">
-        <v>9.37896407781863</v>
+        <v>4.414660713275598</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.48781516894303</v>
+        <v>6.399691693292979</v>
       </c>
       <c r="R6" t="n">
-        <v>1.435388328750321</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.270200394165242</v>
+        <v>1.370304190617468</v>
       </c>
       <c r="K7" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="L7" t="n">
-        <v>13.48781516894303</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="M7" t="n">
-        <v>13.48781516894303</v>
+        <v>3.522870602387503</v>
       </c>
       <c r="N7" t="n">
-        <v>2.965967653422219</v>
+        <v>2.965967653422119</v>
       </c>
       <c r="O7" t="n">
-        <v>2.739551183711086</v>
+        <v>2.739551183710994</v>
       </c>
       <c r="P7" t="n">
-        <v>2.344159309756385</v>
+        <v>2.344159309756307</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.622974398839901</v>
+        <v>13.48781516894257</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>15.29662563687356</v>
+        <v>37.05102592411131</v>
       </c>
       <c r="M9" t="n">
         <v>17.85044062301152</v>
@@ -35266,13 +35266,13 @@
         <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
-        <v>41.31500304752736</v>
+        <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
         <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.52109274915105</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
         <v>4.37408408273069</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>38.67269972973595</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752735</v>
+        <v>6.862043349739423</v>
       </c>
       <c r="L10" t="n">
-        <v>8.825040956104132</v>
+        <v>8.781052968829307</v>
       </c>
       <c r="M10" t="n">
         <v>9.258389161154689</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35497,16 +35497,16 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35570,25 +35570,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>290.2323442945718</v>
       </c>
       <c r="L13" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>247.0585519302304</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,25 +35646,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>142.5533002411767</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>334.6061715252131</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>70.4719911420766</v>
@@ -35968,13 +35968,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>236.9238661190984</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485105</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.10166275847587</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36205,10 +36205,10 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36281,25 +36281,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>269.2501300951972</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,10 +36357,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766673</v>
@@ -36369,16 +36369,16 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>748.4075614369992</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>312.2067247619352</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>218.9990482215635</v>
       </c>
       <c r="R23" t="n">
         <v>288.7178273103004</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
@@ -36521,10 +36521,10 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>537.8032441291346</v>
+        <v>367.9115523469808</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36536,7 +36536,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,10 +36594,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>694.7012126872924</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766673</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916772</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
         <v>596.048746989336</v>
@@ -36767,13 +36767,13 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>269.5479293631065</v>
       </c>
       <c r="P28" t="n">
-        <v>199.676024430375</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,10 +36831,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766673</v>
@@ -36846,13 +36846,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>725.8412538994621</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R29" t="n">
         <v>288.7178273103004</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36995,13 +36995,13 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>481.0196060950329</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37089,7 +37089,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>218.999048221564</v>
+        <v>218.9990482215635</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916772</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>576.749548865479</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485105</v>
+        <v>199.6760244303746</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>585.1753975240805</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
@@ -37703,25 +37703,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M40" t="n">
-        <v>225.9035611675604</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>300.8399982398713</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38104,7 +38104,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
-        <v>270.2548228172327</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
